--- a/ProjetGravite/ExempleCercle.xlsx
+++ b/ProjetGravite/ExempleCercle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\CVM\Outil de gestion\GitHub2022\ProjetGravite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDB56E39-69D6-4647-B791-DAF3D99B4457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B93CA-0A93-445F-85FF-95770DF377CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D08C414-9DED-48BA-873E-3B3FC18E9924}"/>
   </bookViews>
@@ -484,19 +484,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -621,7 +609,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C313-4315-9AB2-9C79D03E65C2}"/>
+              <c16:uniqueId val="{00000000-ADA5-4156-91C8-BC0E67A97892}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -633,11 +621,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1814225920"/>
-        <c:axId val="1814225088"/>
+        <c:axId val="94117200"/>
+        <c:axId val="94112208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1814225920"/>
+        <c:axId val="94117200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,12 +682,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814225088"/>
+        <c:crossAx val="94112208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1814225088"/>
+        <c:axId val="94112208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +744,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814225920"/>
+        <c:crossAx val="94117200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1958,22 +1946,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4">
+        <xdr:cNvPr id="6" name="Graphique 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C660F3-1B9E-43BA-A8E2-17531056D3C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F483CC-69BC-4087-8C19-98B9C152D360}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCCFC32-7C71-44C2-B43B-B19205836E1B}">
   <dimension ref="A4:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
